--- a/students.xlsx
+++ b/students.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498F007-B96D-4AA1-BA91-7897451CBFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -48,40 +49,31 @@
     <t>Hassani</t>
   </si>
   <si>
-    <t>mahdi@mail.com</t>
-  </si>
-  <si>
     <t>Ali</t>
   </si>
   <si>
     <t>Mohammadi</t>
   </si>
   <si>
-    <t>ali@mail.com</t>
-  </si>
-  <si>
     <t>Ahmad</t>
   </si>
   <si>
     <t>Jawadi</t>
   </si>
   <si>
-    <t>ahmad@mail.com</t>
-  </si>
-  <si>
-    <t>Zainab</t>
-  </si>
-  <si>
-    <t>Amini</t>
-  </si>
-  <si>
-    <t>amini@mail.com</t>
+    <t>models.girls.famous@gmail.com</t>
+  </si>
+  <si>
+    <t>jobclassuni@gmail.com</t>
+  </si>
+  <si>
+    <t>ariyabod.crm@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,18 +396,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -452,7 +444,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>780088163</v>
@@ -466,13 +458,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>731040033</v>
@@ -486,10 +478,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -502,34 +494,13 @@
       </c>
       <c r="G4" s="2">
         <v>44228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>761002452</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2017</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44197</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
